--- a/data/trans_dic/CoTrAQ_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R-Provincia-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5572657577636153</v>
+        <v>0.5531990761907746</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3759081134907323</v>
+        <v>0.3922112539327126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5542035229503659</v>
+        <v>0.5469998260323645</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3622857293044135</v>
+        <v>0.3536434893088872</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5856540815012594</v>
+        <v>0.5794756265557327</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4032974076756662</v>
+        <v>0.4021399315617909</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7355363002563887</v>
+        <v>0.7332950530677824</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.566545862881269</v>
+        <v>0.5717171266384731</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7644495831638355</v>
+        <v>0.7600288736185803</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5537052267633762</v>
+        <v>0.5607550847832398</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7223392485357207</v>
+        <v>0.7187318145653003</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5359816637607872</v>
+        <v>0.5357018905690962</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7106660643252262</v>
+        <v>0.7079085806760578</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4602478079790358</v>
+        <v>0.4598282304259589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5910088439772936</v>
+        <v>0.596475646032511</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4328451296726017</v>
+        <v>0.429701310194938</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6850359012502991</v>
+        <v>0.6818084217998238</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4736178697929085</v>
+        <v>0.4690652602298513</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8369348334667303</v>
+        <v>0.8368984825242295</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6108390794311409</v>
+        <v>0.61498065399017</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7719168765805252</v>
+        <v>0.7704959636277278</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6218286623638111</v>
+        <v>0.6160966326992349</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7886517754975512</v>
+        <v>0.7880570550183486</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5894697150556324</v>
+        <v>0.5947028104452277</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6508258701377428</v>
+        <v>0.642613415543662</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3473597233753966</v>
+        <v>0.343739347655508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5507443797033232</v>
+        <v>0.5462309579612058</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3322250670868465</v>
+        <v>0.3408855960239565</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6406671656539352</v>
+        <v>0.6369898872292259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3701231344732708</v>
+        <v>0.3756410859016738</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7933242868351199</v>
+        <v>0.797866361406077</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5247986999432508</v>
+        <v>0.5163817773233957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.781278300026969</v>
+        <v>0.7631873171587342</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5508281594597366</v>
+        <v>0.5464417115590351</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.770081002443603</v>
+        <v>0.7669385123110293</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4977900427331181</v>
+        <v>0.4991180401092203</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6414753686323598</v>
+        <v>0.6416573157114918</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6392730795834248</v>
+        <v>0.6446537559598894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5882852796182495</v>
+        <v>0.5715931493739811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5692695112773118</v>
+        <v>0.5746805752328484</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6492726657457163</v>
+        <v>0.6484045576190652</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6456032179002803</v>
+        <v>0.6431810638814743</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.792824643562087</v>
+        <v>0.8051953744353202</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8091405979237515</v>
+        <v>0.8142910776784777</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7852234612084926</v>
+        <v>0.7793433314532348</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7833258978301029</v>
+        <v>0.7908954110029</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7681750228170042</v>
+        <v>0.7693008942899972</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7769303635608658</v>
+        <v>0.7751697088233905</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4875375619664781</v>
+        <v>0.5063609039000863</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4815117725194751</v>
+        <v>0.4770422367739061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2400574490502029</v>
+        <v>0.2577582255912197</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4195876626039033</v>
+        <v>0.4156172735059026</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4272137630107581</v>
+        <v>0.4280475004826132</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4880891600244734</v>
+        <v>0.4938667788740142</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7192909777216617</v>
+        <v>0.731169230853001</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7074660373870217</v>
+        <v>0.7015227094990188</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.501027383209925</v>
+        <v>0.5291972490855139</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6610903630258353</v>
+        <v>0.6715136201737784</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6009591807297786</v>
+        <v>0.615695183593846</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6508921707079282</v>
+        <v>0.6563716742588662</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6494009420186195</v>
+        <v>0.646488355006151</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3868404065010533</v>
+        <v>0.3846307362685145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6416116084417599</v>
+        <v>0.6493100915208192</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2510673515594728</v>
+        <v>0.2459508140569826</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6820060640558244</v>
+        <v>0.6889138291605039</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3571236583337559</v>
+        <v>0.3543749413456673</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8265870989750926</v>
+        <v>0.8245839617326786</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5738062531875929</v>
+        <v>0.5761921973865948</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8842540058239193</v>
+        <v>0.8869349459568999</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.459971228093098</v>
+        <v>0.4680819218166652</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8266910290198796</v>
+        <v>0.8246309012343599</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5033848275901821</v>
+        <v>0.4967603767602772</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6331683020936737</v>
+        <v>0.6314623963519914</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3050225884659642</v>
+        <v>0.3102107927260474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5235368939385382</v>
+        <v>0.5333651926918743</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2872829721726429</v>
+        <v>0.2848714808783036</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6073890396431992</v>
+        <v>0.6158454413900235</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3095328763850262</v>
+        <v>0.3102131442533919</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7467897814384061</v>
+        <v>0.7488393248101337</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4096802092249283</v>
+        <v>0.4148671930513818</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6837248945830008</v>
+        <v>0.6839806430908201</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.397036963304614</v>
+        <v>0.401795405125046</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.701730324517252</v>
+        <v>0.7130553241536287</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3871295558479084</v>
+        <v>0.38306233452105</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6549299143473635</v>
+        <v>0.6595937272631449</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7125409708357971</v>
+        <v>0.7128261269927882</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6112899672605953</v>
+        <v>0.6157829905939656</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6167008497984019</v>
+        <v>0.6214845648992031</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6569364346728234</v>
+        <v>0.6514359107652895</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6918287563717724</v>
+        <v>0.6908432239720267</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7571381507510131</v>
+        <v>0.7567845376818625</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.805579777589145</v>
+        <v>0.8081342887385027</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7366682067229343</v>
+        <v>0.7381012418025877</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.740504551842471</v>
+        <v>0.7451973696073847</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7350294291986377</v>
+        <v>0.7352253222250088</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7699281104454417</v>
+        <v>0.7673551891780837</v>
       </c>
     </row>
     <row r="28">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.504064522178588</v>
+        <v>0.5051413142133426</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.544861890790082</v>
+        <v>0.5438345952080162</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>65789</v>
+        <v>65308</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>50015</v>
+        <v>52184</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>46729</v>
+        <v>46122</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36254</v>
+        <v>35389</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>118521</v>
+        <v>117271</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>94017</v>
+        <v>93747</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>86834</v>
+        <v>86570</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>75379</v>
+        <v>76068</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>64457</v>
+        <v>64084</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>55409</v>
+        <v>56115</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>146183</v>
+        <v>145453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>124948</v>
+        <v>124883</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>120980</v>
+        <v>120510</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>78379</v>
+        <v>78307</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>68380</v>
+        <v>69012</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>49206</v>
+        <v>48848</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>195875</v>
+        <v>194952</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>134497</v>
+        <v>133204</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>142475</v>
+        <v>142469</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>104024</v>
+        <v>104729</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>89311</v>
+        <v>89146</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>70689</v>
+        <v>70038</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>225502</v>
+        <v>225332</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>167396</v>
+        <v>168882</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>90752</v>
+        <v>89607</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>43625</v>
+        <v>43170</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39751</v>
+        <v>39425</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>28018</v>
+        <v>28748</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>135576</v>
+        <v>134798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>77697</v>
+        <v>78855</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>110622</v>
+        <v>111255</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65909</v>
+        <v>64852</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>56390</v>
+        <v>55084</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>46453</v>
+        <v>46083</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>162962</v>
+        <v>162297</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>104497</v>
+        <v>104776</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>91531</v>
+        <v>91557</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>71714</v>
+        <v>72317</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>57508</v>
+        <v>55877</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>46600</v>
+        <v>47043</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>156115</v>
+        <v>155906</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>125272</v>
+        <v>124802</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>113127</v>
+        <v>114893</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>90769</v>
+        <v>91347</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>76760</v>
+        <v>76185</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>64122</v>
+        <v>64742</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>184705</v>
+        <v>184975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>150755</v>
+        <v>150413</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>39133</v>
+        <v>40644</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38969</v>
+        <v>38607</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12883</v>
+        <v>13833</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23253</v>
+        <v>23033</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>57218</v>
+        <v>57330</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>66550</v>
+        <v>67338</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>57735</v>
+        <v>58689</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>57255</v>
+        <v>56774</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26888</v>
+        <v>28399</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>36636</v>
+        <v>37214</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>80488</v>
+        <v>82462</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>88748</v>
+        <v>89495</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>72089</v>
+        <v>71765</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>41586</v>
+        <v>41349</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>34242</v>
+        <v>34653</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18973</v>
+        <v>18586</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>112106</v>
+        <v>113242</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>65379</v>
+        <v>64876</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>91758</v>
+        <v>91535</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>61685</v>
+        <v>61942</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>47192</v>
+        <v>47335</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>34759</v>
+        <v>35372</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>135889</v>
+        <v>135550</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>92155</v>
+        <v>90942</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>164694</v>
+        <v>164250</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>109465</v>
+        <v>111327</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>90192</v>
+        <v>91885</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>81544</v>
+        <v>80860</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>262626</v>
+        <v>266282</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>198943</v>
+        <v>199381</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>194248</v>
+        <v>194781</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>147024</v>
+        <v>148885</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>117788</v>
+        <v>117832</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>112697</v>
+        <v>114048</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>303418</v>
+        <v>308314</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>248816</v>
+        <v>246202</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>231890</v>
+        <v>233542</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>233651</v>
+        <v>233745</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>154343</v>
+        <v>155477</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>146286</v>
+        <v>147420</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>398469</v>
+        <v>395132</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>390966</v>
+        <v>390409</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>268079</v>
+        <v>267954</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>264160</v>
+        <v>264998</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>185999</v>
+        <v>186361</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>175653</v>
+        <v>176766</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>445837</v>
+        <v>445955</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>435101</v>
+        <v>433647</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1234110</v>
+        <v>1236747</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1333995</v>
+        <v>1331480</v>
       </c>
     </row>
     <row r="40">
